--- a/src/main/resources/resource/PlayerResource.xlsx
+++ b/src/main/resources/resource/PlayerResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14015" windowHeight="5652"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>playerId</t>
   </si>
@@ -22,19 +22,10 @@
     <t>playerName</t>
   </si>
   <si>
-    <t>p1001</t>
-  </si>
-  <si>
     <t>射手</t>
   </si>
   <si>
-    <t>p1002</t>
-  </si>
-  <si>
     <t>法师</t>
-  </si>
-  <si>
-    <t>p1003</t>
   </si>
   <si>
     <t>肉盾</t>
@@ -45,12 +36,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,18 +50,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,11 +74,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,106 +156,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,91 +209,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,85 +341,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,15 +402,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,32 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,156 +454,191 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +966,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1000,27 +984,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4">
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/PlayerResource.xlsx
+++ b/src/main/resources/resource/PlayerResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>playerId</t>
+    <t>roleId</t>
   </si>
   <si>
-    <t>playerName</t>
+    <t>roleName</t>
   </si>
   <si>
     <t>射手</t>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +47,73 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -58,45 +125,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,91 +172,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,85 +203,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,60 +377,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,12 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,6 +445,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -447,15 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,15 +486,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -500,10 +500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -966,7 +966,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/src/main/resources/resource/PlayerResource.xlsx
+++ b/src/main/resources/resource/PlayerResource.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>roleId</t>
+    <t>jobId</t>
   </si>
   <si>
-    <t>roleName</t>
+    <t>jobName</t>
   </si>
   <si>
     <t>射手</t>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,16 +51,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,11 +88,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,21 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -117,78 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,187 +203,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,71 +400,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +423,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,16 +479,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -966,7 +966,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
